--- a/ZohoCRM/data/ZohoEx.xlsx
+++ b/ZohoCRM/data/ZohoEx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Sno.</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>12345678</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -501,7 +504,9 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
